--- a/src/original_data/help/origin_quarter.xlsx
+++ b/src/original_data/help/origin_quarter.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <r>
       <rPr>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t>test4_2006</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
   </si>
 </sst>
 </file>
@@ -554,18 +560,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -823,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM61"/>
+  <dimension ref="A1:BM63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,6 +1335,16 @@
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1351,238 +1367,242 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>102</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6">
+      <c r="B4" s="9">
         <v>105</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>110</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="6">
+      <c r="B8" s="9">
         <v>111</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="6">
+      <c r="B9" s="9">
         <v>112</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="6">
+      <c r="B10" s="9">
         <v>113</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="6">
+      <c r="B11" s="9">
         <v>114</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="6">
+      <c r="B12" s="9">
         <v>115</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="6">
+      <c r="B13" s="9">
         <v>117</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="6">
+      <c r="B14" s="9">
         <v>118</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="6">
+      <c r="B15" s="9">
         <v>119</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="6">
+      <c r="B16" s="9">
         <v>120</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="9">
         <v>201</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="6">
+      <c r="B18" s="9">
         <v>202</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="6">
+      <c r="B19" s="9">
         <v>203</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="6">
+      <c r="B20" s="9">
         <v>204</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="6">
+      <c r="B21" s="9">
         <v>206</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="6">
+      <c r="B22" s="9">
         <v>210</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="6">
+      <c r="B23" s="9">
         <v>211</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="6">
+      <c r="B24" s="9">
         <v>212</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="6">
+      <c r="B25" s="9">
         <v>213</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="6">
+      <c r="B26" s="9">
         <v>215</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="6">
+      <c r="B27" s="9">
         <v>216</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="6">
+      <c r="B28" s="9">
         <v>217</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="7">
+      <c r="B29" s="10">
         <v>218</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
@@ -1595,16 +1615,12 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
